--- a/testcase/testCase.xlsx
+++ b/testcase/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[asr_2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[asr_4,asr_5,asr_6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>asr_4</t>
   </si>
   <si>
@@ -103,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[asr5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[asr6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>asr_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +116,26 @@
   </si>
   <si>
     <t>{"config":"/path1/config"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key1":"value1","key2":"value2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr_4,asr_5,asr_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -199,6 +203,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -483,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -494,7 +501,7 @@
     <col min="3" max="3" width="26.9140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.4140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -523,13 +530,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -538,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -552,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -560,8 +567,8 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
+      <c r="F3" s="4">
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -569,7 +576,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -584,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -592,13 +599,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -607,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -615,13 +622,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -630,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -638,13 +645,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -670,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -702,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -710,22 +717,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3">
         <v>0.85</v>

--- a/testcase/testCase.xlsx
+++ b/testcase/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,65 +77,79 @@
     <t>asr_4</t>
   </si>
   <si>
+    <t>asr_6</t>
+  </si>
+  <si>
+    <t>startDecoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feeDecoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDecoderParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key1":"value1","key2":"value2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"caselist":"/path/case.list","answer":"/path/answer.list"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"config":"/path1/config"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key1":"value1","key2":"value2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr_4,asr_5,asr_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr_7</t>
+  </si>
+  <si>
+    <t>asr_8</t>
+  </si>
+  <si>
+    <t>asr_9</t>
+  </si>
+  <si>
+    <t>testTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>asr_5</t>
-  </si>
-  <si>
-    <t>asr_6</t>
-  </si>
-  <si>
-    <t>startDecoder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feeDecoder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setDecoderParam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key1":"value1","key2":"value2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"caselist":"/path/case.list","answer":"/path/answer.list"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"config":"/path1/config"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key1":"value1","key2":"value2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr_4,asr_5,asr_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"config":"/home/pachiratest/testCase/path1/config"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,18 +502,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.58203125" style="1" customWidth="1"/>
@@ -530,22 +544,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -559,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -582,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -591,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -602,10 +616,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -613,8 +627,8 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
+      <c r="F5" s="2">
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -622,13 +636,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -636,8 +650,8 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
+      <c r="F6" s="2">
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -645,13 +659,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -664,6 +678,98 @@
       </c>
       <c r="G7" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +784,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -709,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -717,16 +823,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>

--- a/testcase/testCase.xlsx
+++ b/testcase/testCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/path/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testTool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +142,22 @@
   </si>
   <si>
     <t>asr_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"config":"/home/pachiratest/testCase/path1/config"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asr_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"config":"/home/pachiratest/testCase/path1/config"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"config":"/home/pachiratest/testCase/path1/config"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -505,7 +517,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -544,22 +556,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -567,19 +579,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -590,22 +602,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -613,19 +625,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -636,19 +648,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -659,19 +671,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -682,22 +694,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -705,22 +717,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -728,19 +740,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -751,22 +763,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3">
         <v>0.85</v>
@@ -815,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -823,22 +835,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3">
         <v>0.85</v>

--- a/testcase/testCase.xlsx
+++ b/testcase/testCase.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/testcase/testCase.xlsx
+++ b/testcase/testCase.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/path/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>testTool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,9 +74,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[asr_4,asr_5,asr_6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>asr_4</t>
   </si>
   <si>
+    <t>asr_5</t>
+  </si>
+  <si>
     <t>asr_6</t>
   </si>
   <si>
@@ -88,6 +99,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[asr5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[asr6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>asr_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,64 +123,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"caselist":"/path/case.list","answer":"/path/answer.list"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"config":"/path1/config"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key1":"value1","key2":"value2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr_4,asr_5,asr_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr_7</t>
-  </si>
-  <si>
-    <t>asr_8</t>
-  </si>
-  <si>
-    <t>asr_9</t>
-  </si>
-  <si>
-    <t>testTool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"config":"/home/pachiratest/testCase/path1/config"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asr_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"config":"/home/pachiratest/testCase/path1/config"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"config":"/home/pachiratest/testCase/path1/config"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"config":"/home/pachiratest/testCase/path1/config"}</t>
+    <t>{"caselist":"/home/pachiratest/testCase/path1/testCase/case.list","answer":"/home/pachiratest/testCase/path1/ar/answer.list"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"config":"/home/pachiratest/testCase/path1/decoder.conf"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -229,9 +195,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -514,20 +477,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.58203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,45 +519,45 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -602,22 +565,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -625,22 +588,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -648,22 +611,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -671,117 +634,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -803,8 +674,8 @@
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="8.08203125" customWidth="1"/>
-    <col min="3" max="3" width="45.4140625" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="86.5" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" customWidth="1"/>
@@ -827,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -835,22 +706,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3">
         <v>0.85</v>

--- a/testcase/testCase.xlsx
+++ b/testcase/testCase.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swlim/python/testFrame/testcase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -32,7 +42,7 @@
     <t>case</t>
   </si>
   <si>
-    <t> data</t>
+    <t>data</t>
   </si>
   <si>
     <t>tools</t>
@@ -50,9 +60,6 @@
     <t>asr_rate</t>
   </si>
   <si>
-    <t>{"caselist":"/home/pachiratest/testCase/path1/case.list","answer":"/home/pachiratest/testCase/path1/ar/answer.list"}</t>
-  </si>
-  <si>
     <t>{"config":"/home/pachiratest/testCase/path1/decoder.conf"}</t>
   </si>
   <si>
@@ -108,17 +115,29 @@
   </si>
   <si>
     <t>{"caselist":"/home/pachiratest/testCase/path1/testCase/case.list","answer":"/home/pachiratest/testCase/path1/ar/answer.list"}</t>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"caselist":"/Users/swlim/work/pahciratest/testcase/rate1/case.list","answer":"/Users/swlim/work/pahciratest/testcase/rate1/ar/answer.list"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"config":"/Users/swlim/work/pahciratest/testcase/rate1/decoder.conf"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,19 +146,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,99 +161,336 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -251,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -266,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -274,171 +521,154 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="n">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.9433198380567"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -461,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -469,28 +699,24 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
         <v>0.85</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>